--- a/AirlinePassengerExercise.xlsx
+++ b/AirlinePassengerExercise.xlsx
@@ -1,23 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\UVG-CC3074-LB09-Serie-Tiempo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3A0D28-6D1D-4707-BB99-F835ED24EC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="315" windowWidth="17955" windowHeight="7965"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -36,15 +52,24 @@
   <si>
     <t>Forecast</t>
   </si>
+  <si>
+    <t>Conf</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,30 +85,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -91,56 +102,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,9 +121,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,12 +134,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -186,6 +155,9 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -197,7 +169,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -211,7 +183,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$169</c:f>
+              <c:f>Sheet1!$D$2:$D$169</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="168"/>
@@ -724,7 +696,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$145</c:f>
+              <c:f>Sheet1!$E$2:$E$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="144"/>
@@ -1164,6 +1136,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE41-4608-80D9-573F61E72CC6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1176,1044 +1153,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$169</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
-                <c:ptCount val="168"/>
-                <c:pt idx="0">
-                  <c:v>17899</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17930</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17958</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18019</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18050</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18080</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18111</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18142</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18172</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18203</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18233</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18264</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18295</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18323</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>18354</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18384</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18415</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18445</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18476</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>18507</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18537</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18568</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18598</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>18629</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>18660</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18688</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>18719</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>18749</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18780</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>18810</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>18841</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>18872</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>18902</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>18933</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>18963</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>18994</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>19025</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>19054</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>19085</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19115</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>19146</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>19176</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19207</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>19238</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>19268</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>19299</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>19329</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>19360</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>19391</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>19419</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>19450</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>19480</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>19511</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>19541</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>19572</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>19603</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>19633</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>19664</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>19694</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>19725</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>19756</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>19784</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>19815</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>19845</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>19876</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>19906</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>19937</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>19968</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>19998</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>20029</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>20059</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>20090</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>20121</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>20149</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>20180</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>20210</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>20241</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>20271</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>20302</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>20333</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>20363</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>20394</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>20424</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>20455</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>20486</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>20515</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>20546</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>20576</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>20607</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>20637</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>20668</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>20699</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>20729</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>20760</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>20790</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>20821</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>20852</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>20880</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>20911</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>20941</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>20972</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>21002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>21033</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>21064</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>21094</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>21125</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>21155</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>21186</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>21217</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>21245</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>21276</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>21306</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>21337</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>21367</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>21398</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>21429</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>21459</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>21490</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>21520</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>21551</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>21582</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>21610</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>21641</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>21671</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>21702</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>21732</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>21763</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>21794</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>21824</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>21855</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>21885</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>21916</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>21947</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>21976</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>22007</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>22037</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>22068</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>22098</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>22129</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>22160</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>22190</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>22221</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>22251</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>22282</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>22313</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>22341</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>22372</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>22402</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>22433</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>22463</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>22494</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>22525</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>22555</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>22586</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>22616</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>22647</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>22678</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>22706</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>22737</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>22767</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>22798</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>22828</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>22859</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>22890</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>22920</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>22951</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>22981</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$169</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="168"/>
-                <c:pt idx="0">
-                  <c:v>124.47771518613513</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>125.7580710740817</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>126.92583728775755</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>128.23137412911834</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>129.50758121034772</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>130.83967341567475</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>132.14183927682112</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>133.50102699736337</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>134.87419508377457</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>136.21651402880681</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>137.61761313728198</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>138.98723561524781</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>140.41683387870631</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>141.86113673849582</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>143.17843304482432</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>144.65114122798593</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>146.09076403478196</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>147.59342794234828</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>149.06233349812345</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>150.59556244661411</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>152.1445619184378</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>153.6587620789644</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>155.23926908351677</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>156.7842689389326</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>158.39692435739983</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>160.0261672659023</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>161.51214068964447</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>163.17342616550346</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>164.79738974972892</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>166.49246671968098</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>168.14946264943728</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>169.87901845174537</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>171.62636416087918</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>173.33445457755994</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>175.11734229501619</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>176.86017624498186</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>178.67932891548111</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>180.51719307043581</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>182.25359544460918</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>184.12822387651744</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>185.96073752429911</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>187.87349696770681</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>189.74328498825861</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>191.69495104968769</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>193.66669160500786</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>195.59413568726271</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>197.60598257006023</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>199.57263196426598</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>201.62540096011656</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>203.69928437686184</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>205.59079829730933</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>207.70546909371618</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>209.77263239339794</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>211.93031679990628</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>214.03952738011026</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>216.2411003180824</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>218.46531824812948</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>220.63956763167397</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>222.90902742300082</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>225.12750227908984</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>227.44312417695878</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>229.7825641544475</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>231.91628259191702</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>234.3017326902195</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>236.63359205329937</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>239.06756356714268</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>241.44685427964365</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>243.93033416229432</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>246.4393586822772</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>248.89201628483275</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>251.4520757945744</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>253.9546218516395</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>256.5667544319391</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>259.20575494859406</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>261.6126916997232</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>264.30359383974411</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>266.9340430597066</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>269.67967968401149</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>272.36363374138483</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>275.16511818060206</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>277.99541819609635</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>280.76213362483338</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>283.65000355690489</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>286.47299555545868</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>289.41960640904495</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>292.39652558368476</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>295.20909990188528</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>298.24556878846113</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>301.21382136641347</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>304.31205376199239</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>307.34068229032323</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>310.5019344999053</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>313.6957027937824</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>316.81772094242638</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>320.07645230496661</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>323.26197408339709</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>326.58698990046895</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>329.94620624550311</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>333.01002575778784</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>336.43530832010526</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>339.78363961398486</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>343.27859437722987</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>346.69503263934797</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>350.2610767758249</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>353.86380061517104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>357.38558684886652</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>361.06159214591872</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>364.65501352025888</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>368.40579086166252</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>372.19514803919395</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>375.65128341930972</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>379.51516645910834</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>383.29224477678576</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>387.23472140137943</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>391.08862764629515</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>395.11129649402471</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>399.17534180610181</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>403.14808561645953</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>407.29479592811299</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>411.34834761342796</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>415.57940437789648</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>419.85398104817733</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>423.7526675464502</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>428.11131296434576</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>432.37203849169862</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>436.81934124334771</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>441.16673235803228</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>445.70449578416896</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>450.28893384690281</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>454.77037943599879</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>459.44806758366349</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>464.02066833203389</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>468.7935033245418</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>473.6154308584388</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>478.17115734963699</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>483.08954178369646</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>487.8974314150704</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>492.91585859371935</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>497.82154344237546</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>502.94204829209838</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>508.11522175422192</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>513.17217640738022</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>518.45057516824306</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>523.61039116328141</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>528.99615556547474</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>534.43731699317675</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>539.40000317929491</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>544.9481767539487</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>550.37170689077902</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>556.0327334803419</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>561.56658131346603</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>567.3427564126273</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>573.17834423306942</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>578.88283166202757</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>584.83711866706574</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>590.6576386238836</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>596.73303922263153</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>602.87093032352777</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>608.4690783996416</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>614.72768433563135</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>620.84568649465734</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>627.2315960449813</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>633.47404185732523</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>639.98984445010615</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>646.57266744249739</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>653.00760290445874</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>659.7243242710291</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>666.29014999045194</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Forecast</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$169</c:f>
+              <c:f>Sheet1!$D$2:$D$169</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="168"/>
@@ -2730,82 +1670,519 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="168"/>
+                <c:pt idx="0">
+                  <c:v>124.47771518613513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.7580710740817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126.92583728775755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.23137412911834</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129.50758121034772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.83967341567475</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132.14183927682112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>133.50102699736337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134.87419508377457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.21651402880681</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137.61761313728198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>138.98723561524781</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140.41683387870631</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>141.86113673849582</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>143.17843304482432</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>144.65114122798593</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>146.09076403478196</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>147.59342794234828</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>149.06233349812345</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150.59556244661411</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>152.1445619184378</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>153.6587620789644</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>155.23926908351677</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>156.7842689389326</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>158.39692435739983</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>160.0261672659023</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>161.51214068964447</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>163.17342616550346</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>164.79738974972892</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>166.49246671968098</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>168.14946264943728</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>169.87901845174537</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>171.62636416087918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>173.33445457755994</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>175.11734229501619</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176.86017624498186</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>178.67932891548111</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>180.51719307043581</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>182.25359544460918</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>184.12822387651744</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>185.96073752429911</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>187.87349696770681</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>189.74328498825861</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>191.69495104968769</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>193.66669160500786</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>195.59413568726271</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>197.60598257006023</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>199.57263196426598</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>201.62540096011656</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>203.69928437686184</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>205.59079829730933</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>207.70546909371618</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>209.77263239339794</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>211.93031679990628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>214.03952738011026</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>216.2411003180824</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>218.46531824812948</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>220.63956763167397</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>222.90902742300082</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>225.12750227908984</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>227.44312417695878</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>229.7825641544475</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>231.91628259191702</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>234.3017326902195</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>236.63359205329937</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>239.06756356714268</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>241.44685427964365</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>243.93033416229432</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>246.4393586822772</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>248.89201628483275</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>251.4520757945744</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>253.9546218516395</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>256.5667544319391</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>259.20575494859406</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>261.6126916997232</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>264.30359383974411</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>266.9340430597066</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>269.67967968401149</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>272.36363374138483</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>275.16511818060206</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>277.99541819609635</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>280.76213362483338</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>283.65000355690489</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>286.47299555545868</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>289.41960640904495</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>292.39652558368476</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>295.20909990188528</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>298.24556878846113</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>301.21382136641347</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>304.31205376199239</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>307.34068229032323</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>310.5019344999053</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>313.6957027937824</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>316.81772094242638</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>320.07645230496661</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>323.26197408339709</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>326.58698990046895</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>329.94620624550311</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>333.01002575778784</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>336.43530832010526</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>339.78363961398486</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>343.27859437722987</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>346.69503263934797</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>350.2610767758249</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>353.86380061517104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>357.38558684886652</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>361.06159214591872</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>364.65501352025888</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>368.40579086166252</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>372.19514803919395</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>375.65128341930972</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>379.51516645910834</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>383.29224477678576</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>387.23472140137943</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>391.08862764629515</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>395.11129649402471</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>399.17534180610181</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>403.14808561645953</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>407.29479592811299</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>411.34834761342796</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>415.57940437789648</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>419.85398104817733</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>423.7526675464502</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>428.11131296434576</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>432.37203849169862</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>436.81934124334771</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>441.16673235803228</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>445.70449578416896</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>450.28893384690281</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>454.77037943599879</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>459.44806758366349</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>464.02066833203389</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>468.7935033245418</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>473.6154308584388</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>478.17115734963699</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>483.08954178369646</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>487.8974314150704</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>492.91585859371935</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>497.82154344237546</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>502.94204829209838</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>508.11522175422192</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>513.17217640738022</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>518.45057516824306</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>523.61039116328141</c:v>
+                </c:pt>
                 <c:pt idx="144">
-                  <c:v>700</c:v>
+                  <c:v>528.99615556547474</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>700</c:v>
+                  <c:v>534.43731699317675</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>700</c:v>
+                  <c:v>539.40000317929491</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>700</c:v>
+                  <c:v>544.9481767539487</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>700</c:v>
+                  <c:v>550.37170689077902</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>700</c:v>
+                  <c:v>556.0327334803419</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>700</c:v>
+                  <c:v>561.56658131346603</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>700</c:v>
+                  <c:v>567.3427564126273</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>700</c:v>
+                  <c:v>573.17834423306942</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>700</c:v>
+                  <c:v>578.88283166202757</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>700</c:v>
+                  <c:v>584.83711866706574</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>700</c:v>
+                  <c:v>590.6576386238836</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>700</c:v>
+                  <c:v>596.73303922263153</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>700</c:v>
+                  <c:v>602.87093032352777</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>700</c:v>
+                  <c:v>608.4690783996416</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>700</c:v>
+                  <c:v>614.72768433563135</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>700</c:v>
+                  <c:v>620.84568649465734</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>700</c:v>
+                  <c:v>627.2315960449813</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>700</c:v>
+                  <c:v>633.47404185732523</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>700</c:v>
+                  <c:v>639.98984445010615</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>700</c:v>
+                  <c:v>646.57266744249739</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>700</c:v>
+                  <c:v>653.00760290445874</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>700</c:v>
+                  <c:v>659.7243242710291</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>700</c:v>
+                  <c:v>666.29014999045194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE41-4608-80D9-573F61E72CC6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2820,6 +2197,1843 @@
         <c:axId val="72110080"/>
         <c:axId val="72112000"/>
       </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Forecast</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$168</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>17899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17930</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18080</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18233</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18264</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18295</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18323</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18354</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18384</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18415</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18507</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18537</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18568</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18629</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18660</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18688</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18719</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18749</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18780</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18810</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18841</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18872</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18902</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18963</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19025</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19054</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19085</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19115</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19146</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19176</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19207</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19238</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19268</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19329</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19360</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19391</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19419</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19450</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19480</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19511</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19541</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19572</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19603</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19633</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19664</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19694</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19725</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19756</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19784</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19815</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19845</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19876</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19906</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19937</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19968</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20029</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20059</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20090</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20149</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20180</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20210</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20241</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20271</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20302</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20363</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20394</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20424</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20455</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20486</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20515</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20546</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20576</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20607</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20637</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20668</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20699</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20729</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20760</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20790</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>20821</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>20852</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>20880</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20911</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20941</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>20972</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>21002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>21033</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>21064</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>21094</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21125</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>21155</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21186</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>21217</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>21245</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21276</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>21306</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>21337</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>21367</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>21398</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>21429</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>21459</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>21490</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>21520</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>21551</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>21582</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>21610</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>21641</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>21671</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>21702</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>21732</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>21763</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>21794</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>21824</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>21855</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>21885</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>21916</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>21947</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>21976</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>22007</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>22037</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>22068</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>22098</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>22129</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>22160</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>22190</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>22221</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>22251</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>22282</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>22313</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>22341</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>22372</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>22402</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>22433</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>22463</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>22494</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>22525</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>22555</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>22586</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>22616</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>22647</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>22678</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>22706</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>22737</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>22767</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>22798</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>22828</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>22859</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>22890</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>22920</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>22951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="168"/>
+                <c:pt idx="143">
+                  <c:v>453.8122735670413</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>427.82631214739752</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>459.26267203905093</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>498.90919904164599</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>508.89441677966471</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>569.84824442952777</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>653.67778647512318</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>637.35982144875197</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>539.05813996086977</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>490.82222666093469</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>421.25868199038166</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>464.42598602853923</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>486.22644294064577</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>460.24048152100204</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>491.67684141265551</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>531.32336841525046</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>541.30858615326918</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>602.26241380313229</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>686.09195584872771</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>669.77399082235638</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>571.47230933447429</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>523.23639603453921</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>453.67285136398618</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>496.84015540214375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DE41-4608-80D9-573F61E72CC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Intervalo de Confianza -</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$168</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>17899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17930</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18080</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18233</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18264</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18295</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18323</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18354</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18384</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18415</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18507</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18537</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18568</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18629</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18660</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18688</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18719</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18749</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18780</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18810</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18841</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18872</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18902</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18963</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19025</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19054</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19085</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19115</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19146</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19176</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19207</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19238</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19268</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19329</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19360</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19391</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19419</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19450</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19480</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19511</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19541</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19572</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19603</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19633</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19664</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19694</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19725</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19756</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19784</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19815</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19845</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19876</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19906</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19937</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19968</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20029</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20059</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20090</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20149</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20180</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20210</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20241</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20271</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20302</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20363</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20394</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20424</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20455</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20486</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20515</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20546</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20576</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20607</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20637</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20668</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20699</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20729</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20760</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20790</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>20821</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>20852</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>20880</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20911</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20941</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>20972</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>21002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>21033</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>21064</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>21094</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21125</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>21155</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21186</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>21217</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>21245</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21276</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>21306</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>21337</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>21367</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>21398</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>21429</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>21459</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>21490</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>21520</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>21551</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>21582</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>21610</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>21641</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>21671</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>21702</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>21732</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>21763</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>21794</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>21824</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>21855</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>21885</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>21916</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>21947</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>21976</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>22007</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>22037</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>22068</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>22098</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>22129</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>22160</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>22190</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>22221</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>22251</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>22282</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>22313</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>22341</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>22372</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>22402</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>22433</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>22463</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>22494</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>22525</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>22555</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>22586</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>22616</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>22647</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>22678</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>22706</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>22737</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>22767</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>22798</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>22828</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>22859</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>22890</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>22920</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>22951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="143">
+                  <c:v>427.08103010664132</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>400.95907192545934</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>432.2574341600577</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>471.76396680224605</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>481.60719802157337</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>542.41705188011997</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>626.10063807573329</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>609.63474067071729</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>511.18315610937367</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>462.7953751667232</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>393.07800468944464</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>436.08953142986343</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>447.06880250944431</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>420.96650778745425</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>452.28481904154461</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>491.81157936127158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>501.67530991697731</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>562.50592768409581</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>646.21053519577652</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>629.76590928081691</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>531.33583909028869</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>482.96980805517148</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>413.2744156360211</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>456.30814116549078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DE41-4608-80D9-573F61E72CC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Intervalo Confianza +</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$168</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="0">
+                  <c:v>17899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17930</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18080</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18233</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18264</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18295</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18323</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18354</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18384</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18415</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18507</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18537</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18568</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18629</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18660</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18688</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18719</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18749</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18780</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18810</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18841</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18872</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18902</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18963</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19025</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19054</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19085</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19115</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19146</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19176</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19207</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19238</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19268</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19329</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19360</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19391</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19419</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19450</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19480</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19511</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>19541</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19572</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19603</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19633</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19664</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19694</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19725</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19756</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19784</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19815</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19845</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19876</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19906</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19937</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19968</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>19998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>20029</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20059</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20090</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>20149</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20180</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20210</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20241</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>20271</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20302</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20333</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20363</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20394</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20424</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20455</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20486</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>20515</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>20546</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>20576</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>20607</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>20637</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20668</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20699</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>20729</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20760</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>20790</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>20821</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>20852</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>20880</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>20911</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20941</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>20972</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>21002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>21033</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>21064</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>21094</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>21125</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>21155</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>21186</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>21217</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>21245</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>21276</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>21306</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>21337</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>21367</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>21398</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>21429</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>21459</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>21490</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>21520</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>21551</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>21582</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>21610</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>21641</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>21671</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>21702</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>21732</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>21763</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>21794</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>21824</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>21855</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>21885</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>21916</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>21947</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>21976</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>22007</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>22037</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>22068</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>22098</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>22129</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>22160</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>22190</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>22221</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>22251</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>22282</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>22313</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>22341</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>22372</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>22402</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>22433</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>22463</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>22494</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>22525</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>22555</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>22586</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>22616</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>22647</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>22678</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>22706</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>22737</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>22767</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>22798</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>22828</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>22859</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>22890</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>22920</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>22951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$168</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="167"/>
+                <c:pt idx="143">
+                  <c:v>480.54351702744128</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>454.69355236933569</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>486.26790991804415</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>526.05443128104594</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>536.18163553775605</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>597.27943697893556</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>681.25493487451308</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>665.08490222678665</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>566.93312381236592</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>518.84907815514612</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>449.43935929131868</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>492.76244062721503</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>525.38408337184728</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>499.51445525454983</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>531.06886378376646</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>570.83515746922933</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>580.94186238956104</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>642.01889992216877</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>725.9733765016789</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>709.78207236389585</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>611.60877957865989</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>563.50298401390694</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>494.07128709195126</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>537.37216963879678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DE41-4608-80D9-573F61E72CC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="296030584"/>
+        <c:axId val="395538536"/>
+      </c:lineChart>
       <c:dateAx>
         <c:axId val="72110080"/>
         <c:scaling>
@@ -2828,7 +4042,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-409]mmm\-yy;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72112000"/>
@@ -2845,15 +4059,55 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="72110080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="395538536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="296030584"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="296030584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]mmm\-yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="395538536"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:dateAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2870,20 +4124,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>16668</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
+      <xdr:rowOff>104772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>595311</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>182561</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2944,7 +4204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2977,9 +4237,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3012,6 +4289,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3187,3245 +4481,3573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.54296875" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>YEAR(C2)</f>
+        <f>YEAR(D2)</f>
         <v>1949</v>
       </c>
       <c r="B2">
+        <f>_xlfn.QUARTILE.INC(A2:A145,1)</f>
+        <v>1951.75</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>17899</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>112</v>
       </c>
-      <c r="E2" s="2">
-        <f>GROWTH($D$2:$D$145,$C$2:$C$145,C2,TRUE)</f>
+      <c r="F2" s="2">
+        <f>GROWTH($E$2:$E$145,$D$2:$D$145,D2,TRUE)</f>
         <v>124.47771518613513</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:A66" si="0">YEAR(C3)</f>
+        <f t="shared" ref="A3:A66" si="0">YEAR(D3)</f>
         <v>1949</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>17930</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>118</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E66" si="1">GROWTH($D$2:$D$145,$C$2:$C$145,C3,TRUE)</f>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F66" si="1">GROWTH($E$2:$E$145,$D$2:$D$145,D3,TRUE)</f>
         <v>125.7580710740817</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1949</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>17958</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>132</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
         <v>126.92583728775755</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1949</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>17989</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>129</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
         <v>128.23137412911834</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1949</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>18019</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>121</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>129.50758121034772</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1949</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>18050</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>130.83967341567475</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1949</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>18080</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>148</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>132.14183927682112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1949</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>18111</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>148</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>133.50102699736337</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1949</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>18142</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>136</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>134.87419508377457</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1949</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>18172</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>119</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>136.21651402880681</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1949</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>18203</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>104</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>137.61761313728198</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1949</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>18233</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>118</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>138.98723561524781</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>18264</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>115</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>140.41683387870631</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>18295</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>126</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>141.86113673849582</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>18323</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>141</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
         <v>143.17843304482432</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>18354</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>135</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
         <v>144.65114122798593</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>18384</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>125</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>146.09076403478196</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>6</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>18415</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>149</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
         <v>147.59342794234828</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>7</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>18445</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>170</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
         <v>149.06233349812345</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>8</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>18476</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>170</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
         <v>150.59556244661411</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>9</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>18507</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>158</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <f t="shared" si="1"/>
         <v>152.1445619184378</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>10</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>18537</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>133</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <f t="shared" si="1"/>
         <v>153.6587620789644</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>11</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>18568</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>114</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <f t="shared" si="1"/>
         <v>155.23926908351677</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>12</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>18598</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>140</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <f t="shared" si="1"/>
         <v>156.7842689389326</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>1951</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>18629</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>145</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <f t="shared" si="1"/>
         <v>158.39692435739983</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>1951</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>18660</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>150</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <f t="shared" si="1"/>
         <v>160.0261672659023</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>1951</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>3</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>18688</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>178</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <f t="shared" si="1"/>
         <v>161.51214068964447</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>1951</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>18719</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>163</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <f t="shared" si="1"/>
         <v>163.17342616550346</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>1951</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>5</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>18749</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>172</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <f t="shared" si="1"/>
         <v>164.79738974972892</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>1951</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>6</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>18780</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>178</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <f t="shared" si="1"/>
         <v>166.49246671968098</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>1951</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>7</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>18810</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>199</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <f t="shared" si="1"/>
         <v>168.14946264943728</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>1951</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>8</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>18841</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>199</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <f t="shared" si="1"/>
         <v>169.87901845174537</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>1951</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>9</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>18872</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="2">
         <v>184</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <f t="shared" si="1"/>
         <v>171.62636416087918</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>1951</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>10</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>18902</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2">
         <v>162</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <f t="shared" si="1"/>
         <v>173.33445457755994</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>1951</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>11</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>18933</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>146</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <f t="shared" si="1"/>
         <v>175.11734229501619</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>1951</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>12</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>18963</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>166</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <f t="shared" si="1"/>
         <v>176.86017624498186</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>1</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <v>18994</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <v>171</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <f t="shared" si="1"/>
         <v>178.67932891548111</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>2</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>19025</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>180</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <f t="shared" si="1"/>
         <v>180.51719307043581</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>19054</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2">
         <v>193</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40" s="2">
         <f t="shared" si="1"/>
         <v>182.25359544460918</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>4</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>19085</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>181</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41" s="2">
         <f t="shared" si="1"/>
         <v>184.12822387651744</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>5</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>19115</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2">
         <v>183</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <f t="shared" si="1"/>
         <v>185.96073752429911</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>6</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>19146</v>
       </c>
-      <c r="D43" s="2">
+      <c r="E43" s="2">
         <v>218</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43" s="2">
         <f t="shared" si="1"/>
         <v>187.87349696770681</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>7</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="1">
         <v>19176</v>
       </c>
-      <c r="D44" s="2">
+      <c r="E44" s="2">
         <v>230</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44" s="2">
         <f t="shared" si="1"/>
         <v>189.74328498825861</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>8</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>19207</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <v>242</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45" s="2">
         <f t="shared" si="1"/>
         <v>191.69495104968769</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>9</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>19238</v>
       </c>
-      <c r="D46" s="2">
+      <c r="E46" s="2">
         <v>209</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46" s="2">
         <f t="shared" si="1"/>
         <v>193.66669160500786</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>10</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>19268</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="2">
         <v>191</v>
       </c>
-      <c r="E47" s="2">
+      <c r="F47" s="2">
         <f t="shared" si="1"/>
         <v>195.59413568726271</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>11</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D48" s="1">
         <v>19299</v>
       </c>
-      <c r="D48" s="2">
+      <c r="E48" s="2">
         <v>172</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <f t="shared" si="1"/>
         <v>197.60598257006023</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>1952</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>12</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D49" s="1">
         <v>19329</v>
       </c>
-      <c r="D49" s="2">
+      <c r="E49" s="2">
         <v>194</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F49" s="2">
         <f t="shared" si="1"/>
         <v>199.57263196426598</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>1953</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>1</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>19360</v>
       </c>
-      <c r="D50" s="2">
+      <c r="E50" s="2">
         <v>196</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F50" s="2">
         <f t="shared" si="1"/>
         <v>201.62540096011656</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>1953</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>2</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D51" s="1">
         <v>19391</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E51" s="2">
         <v>196</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F51" s="2">
         <f t="shared" si="1"/>
         <v>203.69928437686184</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>1953</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>3</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="1">
         <v>19419</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E52" s="2">
         <v>236</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F52" s="2">
         <f t="shared" si="1"/>
         <v>205.59079829730933</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>1953</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>4</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>19450</v>
       </c>
-      <c r="D53" s="2">
+      <c r="E53" s="2">
         <v>235</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F53" s="2">
         <f t="shared" si="1"/>
         <v>207.70546909371618</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>1953</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>5</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D54" s="1">
         <v>19480</v>
       </c>
-      <c r="D54" s="2">
+      <c r="E54" s="2">
         <v>229</v>
       </c>
-      <c r="E54" s="2">
+      <c r="F54" s="2">
         <f t="shared" si="1"/>
         <v>209.77263239339794</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>1953</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>6</v>
       </c>
-      <c r="C55" s="1">
+      <c r="D55" s="1">
         <v>19511</v>
       </c>
-      <c r="D55" s="2">
+      <c r="E55" s="2">
         <v>243</v>
       </c>
-      <c r="E55" s="2">
+      <c r="F55" s="2">
         <f t="shared" si="1"/>
         <v>211.93031679990628</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>1953</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>7</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D56" s="1">
         <v>19541</v>
       </c>
-      <c r="D56" s="2">
+      <c r="E56" s="2">
         <v>264</v>
       </c>
-      <c r="E56" s="2">
+      <c r="F56" s="2">
         <f t="shared" si="1"/>
         <v>214.03952738011026</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>1953</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>8</v>
       </c>
-      <c r="C57" s="1">
+      <c r="D57" s="1">
         <v>19572</v>
       </c>
-      <c r="D57" s="2">
+      <c r="E57" s="2">
         <v>272</v>
       </c>
-      <c r="E57" s="2">
+      <c r="F57" s="2">
         <f t="shared" si="1"/>
         <v>216.2411003180824</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>1953</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>9</v>
       </c>
-      <c r="C58" s="1">
+      <c r="D58" s="1">
         <v>19603</v>
       </c>
-      <c r="D58" s="2">
+      <c r="E58" s="2">
         <v>237</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F58" s="2">
         <f t="shared" si="1"/>
         <v>218.46531824812948</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>1953</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>10</v>
       </c>
-      <c r="C59" s="1">
+      <c r="D59" s="1">
         <v>19633</v>
       </c>
-      <c r="D59" s="2">
+      <c r="E59" s="2">
         <v>211</v>
       </c>
-      <c r="E59" s="2">
+      <c r="F59" s="2">
         <f t="shared" si="1"/>
         <v>220.63956763167397</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>1953</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>11</v>
       </c>
-      <c r="C60" s="1">
+      <c r="D60" s="1">
         <v>19664</v>
       </c>
-      <c r="D60" s="2">
+      <c r="E60" s="2">
         <v>180</v>
       </c>
-      <c r="E60" s="2">
+      <c r="F60" s="2">
         <f t="shared" si="1"/>
         <v>222.90902742300082</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>1953</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>12</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D61" s="1">
         <v>19694</v>
       </c>
-      <c r="D61" s="2">
+      <c r="E61" s="2">
         <v>201</v>
       </c>
-      <c r="E61" s="2">
+      <c r="F61" s="2">
         <f t="shared" si="1"/>
         <v>225.12750227908984</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>1954</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>1</v>
       </c>
-      <c r="C62" s="1">
+      <c r="D62" s="1">
         <v>19725</v>
       </c>
-      <c r="D62" s="2">
+      <c r="E62" s="2">
         <v>204</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F62" s="2">
         <f t="shared" si="1"/>
         <v>227.44312417695878</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>1954</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>2</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D63" s="1">
         <v>19756</v>
       </c>
-      <c r="D63" s="2">
+      <c r="E63" s="2">
         <v>188</v>
       </c>
-      <c r="E63" s="2">
+      <c r="F63" s="2">
         <f t="shared" si="1"/>
         <v>229.7825641544475</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>1954</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>3</v>
       </c>
-      <c r="C64" s="1">
+      <c r="D64" s="1">
         <v>19784</v>
       </c>
-      <c r="D64" s="2">
+      <c r="E64" s="2">
         <v>235</v>
       </c>
-      <c r="E64" s="2">
+      <c r="F64" s="2">
         <f t="shared" si="1"/>
         <v>231.91628259191702</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>1954</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>4</v>
       </c>
-      <c r="C65" s="1">
+      <c r="D65" s="1">
         <v>19815</v>
       </c>
-      <c r="D65" s="2">
+      <c r="E65" s="2">
         <v>227</v>
       </c>
-      <c r="E65" s="2">
+      <c r="F65" s="2">
         <f t="shared" si="1"/>
         <v>234.3017326902195</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>1954</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>5</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="1">
         <v>19845</v>
       </c>
-      <c r="D66" s="2">
+      <c r="E66" s="2">
         <v>234</v>
       </c>
-      <c r="E66" s="2">
+      <c r="F66" s="2">
         <f t="shared" si="1"/>
         <v>236.63359205329937</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <f t="shared" ref="A67:A130" si="2">YEAR(C67)</f>
+        <f t="shared" ref="A67:A130" si="2">YEAR(D67)</f>
         <v>1954</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>6</v>
       </c>
-      <c r="C67" s="1">
+      <c r="D67" s="1">
         <v>19876</v>
       </c>
-      <c r="D67" s="2">
+      <c r="E67" s="2">
         <v>264</v>
       </c>
-      <c r="E67" s="2">
-        <f t="shared" ref="E67:E130" si="3">GROWTH($D$2:$D$145,$C$2:$C$145,C67,TRUE)</f>
+      <c r="F67" s="2">
+        <f t="shared" ref="F67:F130" si="3">GROWTH($E$2:$E$145,$D$2:$D$145,D67,TRUE)</f>
         <v>239.06756356714268</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>1954</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>7</v>
       </c>
-      <c r="C68" s="1">
+      <c r="D68" s="1">
         <v>19906</v>
       </c>
-      <c r="D68" s="2">
+      <c r="E68" s="2">
         <v>302</v>
       </c>
-      <c r="E68" s="2">
+      <c r="F68" s="2">
         <f t="shared" si="3"/>
         <v>241.44685427964365</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>1954</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>8</v>
       </c>
-      <c r="C69" s="1">
+      <c r="D69" s="1">
         <v>19937</v>
       </c>
-      <c r="D69" s="2">
+      <c r="E69" s="2">
         <v>293</v>
       </c>
-      <c r="E69" s="2">
+      <c r="F69" s="2">
         <f t="shared" si="3"/>
         <v>243.93033416229432</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>1954</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>9</v>
       </c>
-      <c r="C70" s="1">
+      <c r="D70" s="1">
         <v>19968</v>
       </c>
-      <c r="D70" s="2">
+      <c r="E70" s="2">
         <v>259</v>
       </c>
-      <c r="E70" s="2">
+      <c r="F70" s="2">
         <f t="shared" si="3"/>
         <v>246.4393586822772</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>1954</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>10</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="1">
         <v>19998</v>
       </c>
-      <c r="D71" s="2">
+      <c r="E71" s="2">
         <v>229</v>
       </c>
-      <c r="E71" s="2">
+      <c r="F71" s="2">
         <f t="shared" si="3"/>
         <v>248.89201628483275</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>1954</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>11</v>
       </c>
-      <c r="C72" s="1">
+      <c r="D72" s="1">
         <v>20029</v>
       </c>
-      <c r="D72" s="2">
+      <c r="E72" s="2">
         <v>203</v>
       </c>
-      <c r="E72" s="2">
+      <c r="F72" s="2">
         <f t="shared" si="3"/>
         <v>251.4520757945744</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>1954</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>12</v>
       </c>
-      <c r="C73" s="1">
+      <c r="D73" s="1">
         <v>20059</v>
       </c>
-      <c r="D73" s="2">
+      <c r="E73" s="2">
         <v>229</v>
       </c>
-      <c r="E73" s="2">
+      <c r="F73" s="2">
         <f t="shared" si="3"/>
         <v>253.9546218516395</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>1</v>
       </c>
-      <c r="C74" s="1">
+      <c r="D74" s="1">
         <v>20090</v>
       </c>
-      <c r="D74" s="2">
+      <c r="E74" s="2">
         <v>242</v>
       </c>
-      <c r="E74" s="2">
+      <c r="F74" s="2">
         <f t="shared" si="3"/>
         <v>256.5667544319391</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>2</v>
       </c>
-      <c r="C75" s="1">
+      <c r="D75" s="1">
         <v>20121</v>
       </c>
-      <c r="D75" s="2">
+      <c r="E75" s="2">
         <v>233</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F75" s="2">
         <f t="shared" si="3"/>
         <v>259.20575494859406</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>3</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1">
         <v>20149</v>
       </c>
-      <c r="D76" s="2">
+      <c r="E76" s="2">
         <v>267</v>
       </c>
-      <c r="E76" s="2">
+      <c r="F76" s="2">
         <f t="shared" si="3"/>
         <v>261.6126916997232</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>4</v>
       </c>
-      <c r="C77" s="1">
+      <c r="D77" s="1">
         <v>20180</v>
       </c>
-      <c r="D77" s="2">
+      <c r="E77" s="2">
         <v>269</v>
       </c>
-      <c r="E77" s="2">
+      <c r="F77" s="2">
         <f t="shared" si="3"/>
         <v>264.30359383974411</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>5</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>20210</v>
       </c>
-      <c r="D78" s="2">
+      <c r="E78" s="2">
         <v>270</v>
       </c>
-      <c r="E78" s="2">
+      <c r="F78" s="2">
         <f t="shared" si="3"/>
         <v>266.9340430597066</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>6</v>
       </c>
-      <c r="C79" s="1">
+      <c r="D79" s="1">
         <v>20241</v>
       </c>
-      <c r="D79" s="2">
+      <c r="E79" s="2">
         <v>315</v>
       </c>
-      <c r="E79" s="2">
+      <c r="F79" s="2">
         <f t="shared" si="3"/>
         <v>269.67967968401149</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>7</v>
       </c>
-      <c r="C80" s="1">
+      <c r="D80" s="1">
         <v>20271</v>
       </c>
-      <c r="D80" s="2">
+      <c r="E80" s="2">
         <v>364</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <f t="shared" si="3"/>
         <v>272.36363374138483</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>8</v>
       </c>
-      <c r="C81" s="1">
+      <c r="D81" s="1">
         <v>20302</v>
       </c>
-      <c r="D81" s="2">
+      <c r="E81" s="2">
         <v>347</v>
       </c>
-      <c r="E81" s="2">
+      <c r="F81" s="2">
         <f t="shared" si="3"/>
         <v>275.16511818060206</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>9</v>
       </c>
-      <c r="C82" s="1">
+      <c r="D82" s="1">
         <v>20333</v>
       </c>
-      <c r="D82" s="2">
+      <c r="E82" s="2">
         <v>312</v>
       </c>
-      <c r="E82" s="2">
+      <c r="F82" s="2">
         <f t="shared" si="3"/>
         <v>277.99541819609635</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>10</v>
       </c>
-      <c r="C83" s="1">
+      <c r="D83" s="1">
         <v>20363</v>
       </c>
-      <c r="D83" s="2">
+      <c r="E83" s="2">
         <v>274</v>
       </c>
-      <c r="E83" s="2">
+      <c r="F83" s="2">
         <f t="shared" si="3"/>
         <v>280.76213362483338</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>11</v>
       </c>
-      <c r="C84" s="1">
+      <c r="D84" s="1">
         <v>20394</v>
       </c>
-      <c r="D84" s="2">
+      <c r="E84" s="2">
         <v>237</v>
       </c>
-      <c r="E84" s="2">
+      <c r="F84" s="2">
         <f t="shared" si="3"/>
         <v>283.65000355690489</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>1955</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>12</v>
       </c>
-      <c r="C85" s="1">
+      <c r="D85" s="1">
         <v>20424</v>
       </c>
-      <c r="D85" s="2">
+      <c r="E85" s="2">
         <v>278</v>
       </c>
-      <c r="E85" s="2">
+      <c r="F85" s="2">
         <f t="shared" si="3"/>
         <v>286.47299555545868</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>1</v>
       </c>
-      <c r="C86" s="1">
+      <c r="D86" s="1">
         <v>20455</v>
       </c>
-      <c r="D86" s="2">
+      <c r="E86" s="2">
         <v>284</v>
       </c>
-      <c r="E86" s="2">
+      <c r="F86" s="2">
         <f t="shared" si="3"/>
         <v>289.41960640904495</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>2</v>
       </c>
-      <c r="C87" s="1">
+      <c r="D87" s="1">
         <v>20486</v>
       </c>
-      <c r="D87" s="2">
+      <c r="E87" s="2">
         <v>277</v>
       </c>
-      <c r="E87" s="2">
+      <c r="F87" s="2">
         <f t="shared" si="3"/>
         <v>292.39652558368476</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>3</v>
       </c>
-      <c r="C88" s="1">
+      <c r="D88" s="1">
         <v>20515</v>
       </c>
-      <c r="D88" s="2">
+      <c r="E88" s="2">
         <v>317</v>
       </c>
-      <c r="E88" s="2">
+      <c r="F88" s="2">
         <f t="shared" si="3"/>
         <v>295.20909990188528</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>4</v>
       </c>
-      <c r="C89" s="1">
+      <c r="D89" s="1">
         <v>20546</v>
       </c>
-      <c r="D89" s="2">
+      <c r="E89" s="2">
         <v>313</v>
       </c>
-      <c r="E89" s="2">
+      <c r="F89" s="2">
         <f t="shared" si="3"/>
         <v>298.24556878846113</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>5</v>
       </c>
-      <c r="C90" s="1">
+      <c r="D90" s="1">
         <v>20576</v>
       </c>
-      <c r="D90" s="2">
+      <c r="E90" s="2">
         <v>318</v>
       </c>
-      <c r="E90" s="2">
+      <c r="F90" s="2">
         <f t="shared" si="3"/>
         <v>301.21382136641347</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>6</v>
       </c>
-      <c r="C91" s="1">
+      <c r="D91" s="1">
         <v>20607</v>
       </c>
-      <c r="D91" s="2">
+      <c r="E91" s="2">
         <v>374</v>
       </c>
-      <c r="E91" s="2">
+      <c r="F91" s="2">
         <f t="shared" si="3"/>
         <v>304.31205376199239</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>7</v>
       </c>
-      <c r="C92" s="1">
+      <c r="D92" s="1">
         <v>20637</v>
       </c>
-      <c r="D92" s="2">
+      <c r="E92" s="2">
         <v>413</v>
       </c>
-      <c r="E92" s="2">
+      <c r="F92" s="2">
         <f t="shared" si="3"/>
         <v>307.34068229032323</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>8</v>
       </c>
-      <c r="C93" s="1">
+      <c r="D93" s="1">
         <v>20668</v>
       </c>
-      <c r="D93" s="2">
+      <c r="E93" s="2">
         <v>405</v>
       </c>
-      <c r="E93" s="2">
+      <c r="F93" s="2">
         <f t="shared" si="3"/>
         <v>310.5019344999053</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>9</v>
       </c>
-      <c r="C94" s="1">
+      <c r="D94" s="1">
         <v>20699</v>
       </c>
-      <c r="D94" s="2">
+      <c r="E94" s="2">
         <v>355</v>
       </c>
-      <c r="E94" s="2">
+      <c r="F94" s="2">
         <f t="shared" si="3"/>
         <v>313.6957027937824</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>10</v>
       </c>
-      <c r="C95" s="1">
+      <c r="D95" s="1">
         <v>20729</v>
       </c>
-      <c r="D95" s="2">
+      <c r="E95" s="2">
         <v>306</v>
       </c>
-      <c r="E95" s="2">
+      <c r="F95" s="2">
         <f t="shared" si="3"/>
         <v>316.81772094242638</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>11</v>
       </c>
-      <c r="C96" s="1">
+      <c r="D96" s="1">
         <v>20760</v>
       </c>
-      <c r="D96" s="2">
+      <c r="E96" s="2">
         <v>271</v>
       </c>
-      <c r="E96" s="2">
+      <c r="F96" s="2">
         <f t="shared" si="3"/>
         <v>320.07645230496661</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" si="2"/>
         <v>1956</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>12</v>
       </c>
-      <c r="C97" s="1">
+      <c r="D97" s="1">
         <v>20790</v>
       </c>
-      <c r="D97" s="2">
+      <c r="E97" s="2">
         <v>306</v>
       </c>
-      <c r="E97" s="2">
+      <c r="F97" s="2">
         <f t="shared" si="3"/>
         <v>323.26197408339709</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>1</v>
       </c>
-      <c r="C98" s="1">
+      <c r="D98" s="1">
         <v>20821</v>
       </c>
-      <c r="D98" s="2">
+      <c r="E98" s="2">
         <v>315</v>
       </c>
-      <c r="E98" s="2">
+      <c r="F98" s="2">
         <f t="shared" si="3"/>
         <v>326.58698990046895</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>2</v>
       </c>
-      <c r="C99" s="1">
+      <c r="D99" s="1">
         <v>20852</v>
       </c>
-      <c r="D99" s="2">
+      <c r="E99" s="2">
         <v>301</v>
       </c>
-      <c r="E99" s="2">
+      <c r="F99" s="2">
         <f t="shared" si="3"/>
         <v>329.94620624550311</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>3</v>
       </c>
-      <c r="C100" s="1">
+      <c r="D100" s="1">
         <v>20880</v>
       </c>
-      <c r="D100" s="2">
+      <c r="E100" s="2">
         <v>356</v>
       </c>
-      <c r="E100" s="2">
+      <c r="F100" s="2">
         <f t="shared" si="3"/>
         <v>333.01002575778784</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>4</v>
       </c>
-      <c r="C101" s="1">
+      <c r="D101" s="1">
         <v>20911</v>
       </c>
-      <c r="D101" s="2">
+      <c r="E101" s="2">
         <v>348</v>
       </c>
-      <c r="E101" s="2">
+      <c r="F101" s="2">
         <f t="shared" si="3"/>
         <v>336.43530832010526</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>5</v>
       </c>
-      <c r="C102" s="1">
+      <c r="D102" s="1">
         <v>20941</v>
       </c>
-      <c r="D102" s="2">
+      <c r="E102" s="2">
         <v>355</v>
       </c>
-      <c r="E102" s="2">
+      <c r="F102" s="2">
         <f t="shared" si="3"/>
         <v>339.78363961398486</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>6</v>
       </c>
-      <c r="C103" s="1">
+      <c r="D103" s="1">
         <v>20972</v>
       </c>
-      <c r="D103" s="2">
+      <c r="E103" s="2">
         <v>422</v>
       </c>
-      <c r="E103" s="2">
+      <c r="F103" s="2">
         <f t="shared" si="3"/>
         <v>343.27859437722987</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>7</v>
       </c>
-      <c r="C104" s="1">
+      <c r="D104" s="1">
         <v>21002</v>
       </c>
-      <c r="D104" s="2">
+      <c r="E104" s="2">
         <v>465</v>
       </c>
-      <c r="E104" s="2">
+      <c r="F104" s="2">
         <f t="shared" si="3"/>
         <v>346.69503263934797</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>8</v>
       </c>
-      <c r="C105" s="1">
+      <c r="D105" s="1">
         <v>21033</v>
       </c>
-      <c r="D105" s="2">
+      <c r="E105" s="2">
         <v>467</v>
       </c>
-      <c r="E105" s="2">
+      <c r="F105" s="2">
         <f t="shared" si="3"/>
         <v>350.2610767758249</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>9</v>
       </c>
-      <c r="C106" s="1">
+      <c r="D106" s="1">
         <v>21064</v>
       </c>
-      <c r="D106" s="2">
+      <c r="E106" s="2">
         <v>404</v>
       </c>
-      <c r="E106" s="2">
+      <c r="F106" s="2">
         <f t="shared" si="3"/>
         <v>353.86380061517104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>10</v>
       </c>
-      <c r="C107" s="1">
+      <c r="D107" s="1">
         <v>21094</v>
       </c>
-      <c r="D107" s="2">
+      <c r="E107" s="2">
         <v>347</v>
       </c>
-      <c r="E107" s="2">
+      <c r="F107" s="2">
         <f t="shared" si="3"/>
         <v>357.38558684886652</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>11</v>
       </c>
-      <c r="C108" s="1">
+      <c r="D108" s="1">
         <v>21125</v>
       </c>
-      <c r="D108" s="2">
+      <c r="E108" s="2">
         <v>305</v>
       </c>
-      <c r="E108" s="2">
+      <c r="F108" s="2">
         <f t="shared" si="3"/>
         <v>361.06159214591872</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <f t="shared" si="2"/>
         <v>1957</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>12</v>
       </c>
-      <c r="C109" s="1">
+      <c r="D109" s="1">
         <v>21155</v>
       </c>
-      <c r="D109" s="2">
+      <c r="E109" s="2">
         <v>336</v>
       </c>
-      <c r="E109" s="2">
+      <c r="F109" s="2">
         <f t="shared" si="3"/>
         <v>364.65501352025888</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>1</v>
       </c>
-      <c r="C110" s="1">
+      <c r="D110" s="1">
         <v>21186</v>
       </c>
-      <c r="D110" s="2">
+      <c r="E110" s="2">
         <v>340</v>
       </c>
-      <c r="E110" s="2">
+      <c r="F110" s="2">
         <f t="shared" si="3"/>
         <v>368.40579086166252</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>2</v>
       </c>
-      <c r="C111" s="1">
+      <c r="D111" s="1">
         <v>21217</v>
       </c>
-      <c r="D111" s="2">
+      <c r="E111" s="2">
         <v>318</v>
       </c>
-      <c r="E111" s="2">
+      <c r="F111" s="2">
         <f t="shared" si="3"/>
         <v>372.19514803919395</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>3</v>
       </c>
-      <c r="C112" s="1">
+      <c r="D112" s="1">
         <v>21245</v>
       </c>
-      <c r="D112" s="2">
+      <c r="E112" s="2">
         <v>362</v>
       </c>
-      <c r="E112" s="2">
+      <c r="F112" s="2">
         <f t="shared" si="3"/>
         <v>375.65128341930972</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>4</v>
       </c>
-      <c r="C113" s="1">
+      <c r="D113" s="1">
         <v>21276</v>
       </c>
-      <c r="D113" s="2">
+      <c r="E113" s="2">
         <v>348</v>
       </c>
-      <c r="E113" s="2">
+      <c r="F113" s="2">
         <f t="shared" si="3"/>
         <v>379.51516645910834</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>5</v>
       </c>
-      <c r="C114" s="1">
+      <c r="D114" s="1">
         <v>21306</v>
       </c>
-      <c r="D114" s="2">
+      <c r="E114" s="2">
         <v>363</v>
       </c>
-      <c r="E114" s="2">
+      <c r="F114" s="2">
         <f t="shared" si="3"/>
         <v>383.29224477678576</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>6</v>
       </c>
-      <c r="C115" s="1">
+      <c r="D115" s="1">
         <v>21337</v>
       </c>
-      <c r="D115" s="2">
+      <c r="E115" s="2">
         <v>435</v>
       </c>
-      <c r="E115" s="2">
+      <c r="F115" s="2">
         <f t="shared" si="3"/>
         <v>387.23472140137943</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>7</v>
       </c>
-      <c r="C116" s="1">
+      <c r="D116" s="1">
         <v>21367</v>
       </c>
-      <c r="D116" s="2">
+      <c r="E116" s="2">
         <v>491</v>
       </c>
-      <c r="E116" s="2">
+      <c r="F116" s="2">
         <f t="shared" si="3"/>
         <v>391.08862764629515</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>8</v>
       </c>
-      <c r="C117" s="1">
+      <c r="D117" s="1">
         <v>21398</v>
       </c>
-      <c r="D117" s="2">
+      <c r="E117" s="2">
         <v>505</v>
       </c>
-      <c r="E117" s="2">
+      <c r="F117" s="2">
         <f t="shared" si="3"/>
         <v>395.11129649402471</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>9</v>
       </c>
-      <c r="C118" s="1">
+      <c r="D118" s="1">
         <v>21429</v>
       </c>
-      <c r="D118" s="2">
+      <c r="E118" s="2">
         <v>404</v>
       </c>
-      <c r="E118" s="2">
+      <c r="F118" s="2">
         <f t="shared" si="3"/>
         <v>399.17534180610181</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>10</v>
       </c>
-      <c r="C119" s="1">
+      <c r="D119" s="1">
         <v>21459</v>
       </c>
-      <c r="D119" s="2">
+      <c r="E119" s="2">
         <v>359</v>
       </c>
-      <c r="E119" s="2">
+      <c r="F119" s="2">
         <f t="shared" si="3"/>
         <v>403.14808561645953</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>11</v>
       </c>
-      <c r="C120" s="1">
+      <c r="D120" s="1">
         <v>21490</v>
       </c>
-      <c r="D120" s="2">
+      <c r="E120" s="2">
         <v>310</v>
       </c>
-      <c r="E120" s="2">
+      <c r="F120" s="2">
         <f t="shared" si="3"/>
         <v>407.29479592811299</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <f t="shared" si="2"/>
         <v>1958</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>12</v>
       </c>
-      <c r="C121" s="1">
+      <c r="D121" s="1">
         <v>21520</v>
       </c>
-      <c r="D121" s="2">
+      <c r="E121" s="2">
         <v>337</v>
       </c>
-      <c r="E121" s="2">
+      <c r="F121" s="2">
         <f t="shared" si="3"/>
         <v>411.34834761342796</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <f t="shared" si="2"/>
         <v>1959</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>1</v>
       </c>
-      <c r="C122" s="1">
+      <c r="D122" s="1">
         <v>21551</v>
       </c>
-      <c r="D122" s="2">
+      <c r="E122" s="2">
         <v>360</v>
       </c>
-      <c r="E122" s="2">
+      <c r="F122" s="2">
         <f t="shared" si="3"/>
         <v>415.57940437789648</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <f t="shared" si="2"/>
         <v>1959</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>2</v>
       </c>
-      <c r="C123" s="1">
+      <c r="D123" s="1">
         <v>21582</v>
       </c>
-      <c r="D123" s="2">
+      <c r="E123" s="2">
         <v>342</v>
       </c>
-      <c r="E123" s="2">
+      <c r="F123" s="2">
         <f t="shared" si="3"/>
         <v>419.85398104817733</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <f t="shared" si="2"/>
         <v>1959</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>3</v>
       </c>
-      <c r="C124" s="1">
+      <c r="D124" s="1">
         <v>21610</v>
       </c>
-      <c r="D124" s="2">
+      <c r="E124" s="2">
         <v>406</v>
       </c>
-      <c r="E124" s="2">
+      <c r="F124" s="2">
         <f t="shared" si="3"/>
         <v>423.7526675464502</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <f t="shared" si="2"/>
         <v>1959</v>
       </c>
-      <c r="B125">
+      <c r="C125">
         <v>4</v>
       </c>
-      <c r="C125" s="1">
+      <c r="D125" s="1">
         <v>21641</v>
       </c>
-      <c r="D125" s="2">
+      <c r="E125" s="2">
         <v>396</v>
       </c>
-      <c r="E125" s="2">
+      <c r="F125" s="2">
         <f t="shared" si="3"/>
         <v>428.11131296434576</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <f t="shared" si="2"/>
         <v>1959</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>5</v>
       </c>
-      <c r="C126" s="1">
+      <c r="D126" s="1">
         <v>21671</v>
       </c>
-      <c r="D126" s="2">
+      <c r="E126" s="2">
         <v>420</v>
       </c>
-      <c r="E126" s="2">
+      <c r="F126" s="2">
         <f t="shared" si="3"/>
         <v>432.37203849169862</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <f t="shared" si="2"/>
         <v>1959</v>
       </c>
-      <c r="B127">
+      <c r="C127">
         <v>6</v>
       </c>
-      <c r="C127" s="1">
+      <c r="D127" s="1">
         <v>21702</v>
       </c>
-      <c r="D127" s="2">
+      <c r="E127" s="2">
         <v>472</v>
       </c>
-      <c r="E127" s="2">
+      <c r="F127" s="2">
         <f t="shared" si="3"/>
         <v>436.81934124334771</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <f t="shared" si="2"/>
         <v>1959</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>7</v>
       </c>
-      <c r="C128" s="1">
+      <c r="D128" s="1">
         <v>21732</v>
       </c>
-      <c r="D128" s="2">
+      <c r="E128" s="2">
         <v>548</v>
       </c>
-      <c r="E128" s="2">
+      <c r="F128" s="2">
         <f t="shared" si="3"/>
         <v>441.16673235803228</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <f t="shared" si="2"/>
         <v>1959</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>8</v>
       </c>
-      <c r="C129" s="1">
+      <c r="D129" s="1">
         <v>21763</v>
       </c>
-      <c r="D129" s="2">
+      <c r="E129" s="2">
         <v>559</v>
       </c>
-      <c r="E129" s="2">
+      <c r="F129" s="2">
         <f t="shared" si="3"/>
         <v>445.70449578416896</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <f t="shared" si="2"/>
         <v>1959</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>9</v>
       </c>
-      <c r="C130" s="1">
+      <c r="D130" s="1">
         <v>21794</v>
       </c>
-      <c r="D130" s="2">
+      <c r="E130" s="2">
         <v>463</v>
       </c>
-      <c r="E130" s="2">
+      <c r="F130" s="2">
         <f t="shared" si="3"/>
         <v>450.28893384690281</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
-        <f t="shared" ref="A131:A145" si="4">YEAR(C131)</f>
+        <f t="shared" ref="A131:A145" si="4">YEAR(D131)</f>
         <v>1959</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>10</v>
       </c>
-      <c r="C131" s="1">
+      <c r="D131" s="1">
         <v>21824</v>
       </c>
-      <c r="D131" s="2">
+      <c r="E131" s="2">
         <v>407</v>
       </c>
-      <c r="E131" s="2">
-        <f t="shared" ref="E131:E169" si="5">GROWTH($D$2:$D$145,$C$2:$C$145,C131,TRUE)</f>
+      <c r="F131" s="2">
+        <f t="shared" ref="F131:F169" si="5">GROWTH($E$2:$E$145,$D$2:$D$145,D131,TRUE)</f>
         <v>454.77037943599879</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <f t="shared" si="4"/>
         <v>1959</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>11</v>
       </c>
-      <c r="C132" s="1">
+      <c r="D132" s="1">
         <v>21855</v>
       </c>
-      <c r="D132" s="2">
+      <c r="E132" s="2">
         <v>362</v>
       </c>
-      <c r="E132" s="2">
+      <c r="F132" s="2">
         <f t="shared" si="5"/>
         <v>459.44806758366349</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <f t="shared" si="4"/>
         <v>1959</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>12</v>
       </c>
-      <c r="C133" s="1">
+      <c r="D133" s="1">
         <v>21885</v>
       </c>
-      <c r="D133" s="2">
+      <c r="E133" s="2">
         <v>405</v>
       </c>
-      <c r="E133" s="2">
+      <c r="F133" s="2">
         <f t="shared" si="5"/>
         <v>464.02066833203389</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <f t="shared" si="4"/>
         <v>1960</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>1</v>
       </c>
-      <c r="C134" s="1">
+      <c r="D134" s="1">
         <v>21916</v>
       </c>
-      <c r="D134" s="2">
+      <c r="E134" s="2">
         <v>417</v>
       </c>
-      <c r="E134" s="2">
+      <c r="F134" s="2">
         <f t="shared" si="5"/>
         <v>468.7935033245418</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <f t="shared" si="4"/>
         <v>1960</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>2</v>
       </c>
-      <c r="C135" s="1">
+      <c r="D135" s="1">
         <v>21947</v>
       </c>
-      <c r="D135" s="2">
+      <c r="E135" s="2">
         <v>391</v>
       </c>
-      <c r="E135" s="2">
+      <c r="F135" s="2">
         <f t="shared" si="5"/>
         <v>473.6154308584388</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <f t="shared" si="4"/>
         <v>1960</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>3</v>
       </c>
-      <c r="C136" s="1">
+      <c r="D136" s="1">
         <v>21976</v>
       </c>
-      <c r="D136" s="2">
+      <c r="E136" s="2">
         <v>419</v>
       </c>
-      <c r="E136" s="2">
+      <c r="F136" s="2">
         <f t="shared" si="5"/>
         <v>478.17115734963699</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <f t="shared" si="4"/>
         <v>1960</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>4</v>
       </c>
-      <c r="C137" s="1">
+      <c r="D137" s="1">
         <v>22007</v>
       </c>
-      <c r="D137" s="2">
+      <c r="E137" s="2">
         <v>461</v>
       </c>
-      <c r="E137" s="2">
+      <c r="F137" s="2">
         <f t="shared" si="5"/>
         <v>483.08954178369646</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <f t="shared" si="4"/>
         <v>1960</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>5</v>
       </c>
-      <c r="C138" s="1">
+      <c r="D138" s="1">
         <v>22037</v>
       </c>
-      <c r="D138" s="2">
+      <c r="E138" s="2">
         <v>472</v>
       </c>
-      <c r="E138" s="2">
+      <c r="F138" s="2">
         <f t="shared" si="5"/>
         <v>487.8974314150704</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <f t="shared" si="4"/>
         <v>1960</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>6</v>
       </c>
-      <c r="C139" s="1">
+      <c r="D139" s="1">
         <v>22068</v>
       </c>
-      <c r="D139" s="2">
+      <c r="E139" s="2">
         <v>535</v>
       </c>
-      <c r="E139" s="2">
+      <c r="F139" s="2">
         <f t="shared" si="5"/>
         <v>492.91585859371935</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <f t="shared" si="4"/>
         <v>1960</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>7</v>
       </c>
-      <c r="C140" s="1">
+      <c r="D140" s="1">
         <v>22098</v>
       </c>
-      <c r="D140" s="2">
+      <c r="E140" s="2">
         <v>622</v>
       </c>
-      <c r="E140" s="2">
+      <c r="F140" s="2">
         <f t="shared" si="5"/>
         <v>497.82154344237546</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <f t="shared" si="4"/>
         <v>1960</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>8</v>
       </c>
-      <c r="C141" s="1">
+      <c r="D141" s="1">
         <v>22129</v>
       </c>
-      <c r="D141" s="2">
+      <c r="E141" s="2">
         <v>606</v>
       </c>
-      <c r="E141" s="2">
+      <c r="F141" s="2">
         <f t="shared" si="5"/>
         <v>502.94204829209838</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <f t="shared" si="4"/>
         <v>1960</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>9</v>
       </c>
-      <c r="C142" s="1">
+      <c r="D142" s="1">
         <v>22160</v>
       </c>
-      <c r="D142" s="2">
+      <c r="E142" s="2">
         <v>508</v>
       </c>
-      <c r="E142" s="2">
+      <c r="F142" s="2">
         <f t="shared" si="5"/>
         <v>508.11522175422192</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <f t="shared" si="4"/>
         <v>1960</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>10</v>
       </c>
-      <c r="C143" s="1">
+      <c r="D143" s="1">
         <v>22190</v>
       </c>
-      <c r="D143" s="2">
+      <c r="E143" s="2">
         <v>461</v>
       </c>
-      <c r="E143" s="2">
+      <c r="F143" s="2">
         <f t="shared" si="5"/>
         <v>513.17217640738022</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <f t="shared" si="4"/>
         <v>1960</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>11</v>
       </c>
-      <c r="C144" s="1">
+      <c r="D144" s="1">
         <v>22221</v>
       </c>
-      <c r="D144" s="2">
+      <c r="E144" s="2">
         <v>390</v>
       </c>
-      <c r="E144" s="2">
+      <c r="F144" s="2">
         <f t="shared" si="5"/>
         <v>518.45057516824306</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145">
         <f t="shared" si="4"/>
         <v>1960</v>
       </c>
-      <c r="B145">
+      <c r="C145">
         <v>12</v>
       </c>
-      <c r="C145" s="1">
+      <c r="D145" s="1">
         <v>22251</v>
       </c>
-      <c r="D145" s="2">
+      <c r="E145" s="2">
         <v>432</v>
       </c>
-      <c r="E145" s="2">
+      <c r="F145" s="2">
         <f t="shared" si="5"/>
         <v>523.61039116328141</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="G145">
+        <f>_xlfn.FORECAST.ETS(D146,$E$2:$E$145,$D$2:$D$145)</f>
+        <v>453.8122735670413</v>
+      </c>
+      <c r="H145">
+        <f>_xlfn.FORECAST.ETS.CONFINT(D146,$E$2:$E$145,$D$2:$D$145)</f>
+        <v>26.731243460399991</v>
+      </c>
+      <c r="I145">
+        <f>G145-H145</f>
+        <v>427.08103010664132</v>
+      </c>
+      <c r="J145">
+        <f>G145+H145</f>
+        <v>480.54351702744128</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="4">
         <v>1961</v>
       </c>
-      <c r="B146">
+      <c r="C146" s="4">
         <v>1</v>
       </c>
-      <c r="C146" s="1">
-        <f>DATE(A146,B146,1)</f>
+      <c r="D146" s="6">
+        <f>DATE(A146,C146,1)</f>
         <v>22282</v>
       </c>
-      <c r="E146" s="2">
+      <c r="F146" s="5">
         <f t="shared" si="5"/>
         <v>528.99615556547474</v>
       </c>
-      <c r="F146" s="6">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="4">
+        <f t="shared" ref="G146:G169" si="6">_xlfn.FORECAST.ETS(D147,$E$2:$E$145,$D$2:$D$145)</f>
+        <v>427.82631214739752</v>
+      </c>
+      <c r="H146">
+        <f t="shared" ref="H146:H169" si="7">_xlfn.FORECAST.ETS.CONFINT(D147,$E$2:$E$145,$D$2:$D$145)</f>
+        <v>26.8672402219382</v>
+      </c>
+      <c r="I146">
+        <f t="shared" ref="I146:I168" si="8">G146-H146</f>
+        <v>400.95907192545934</v>
+      </c>
+      <c r="J146">
+        <f t="shared" ref="J146:J168" si="9">G146+H146</f>
+        <v>454.69355236933569</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1961</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>2</v>
       </c>
-      <c r="C147" s="1">
-        <f t="shared" ref="C147:C157" si="6">DATE(A147,B147,1)</f>
+      <c r="D147" s="1">
+        <f t="shared" ref="D147:D157" si="10">DATE(A147,C147,1)</f>
         <v>22313</v>
       </c>
-      <c r="E147" s="2">
+      <c r="F147" s="2">
         <f t="shared" si="5"/>
         <v>534.43731699317675</v>
       </c>
-      <c r="F147" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <f t="shared" si="6"/>
+        <v>459.26267203905093</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="7"/>
+        <v>27.005237878993203</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="8"/>
+        <v>432.2574341600577</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="9"/>
+        <v>486.26790991804415</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1961</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>3</v>
       </c>
-      <c r="C148" s="1">
-        <f t="shared" si="6"/>
+      <c r="D148" s="1">
+        <f t="shared" si="10"/>
         <v>22341</v>
       </c>
-      <c r="E148" s="2">
+      <c r="F148" s="2">
         <f t="shared" si="5"/>
         <v>539.40000317929491</v>
       </c>
-      <c r="F148" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <f t="shared" si="6"/>
+        <v>498.90919904164599</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="7"/>
+        <v>27.145232239399924</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="8"/>
+        <v>471.76396680224605</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="9"/>
+        <v>526.05443128104594</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1961</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>4</v>
       </c>
-      <c r="C149" s="1">
-        <f t="shared" si="6"/>
+      <c r="D149" s="1">
+        <f t="shared" si="10"/>
         <v>22372</v>
       </c>
-      <c r="E149" s="2">
+      <c r="F149" s="2">
         <f t="shared" si="5"/>
         <v>544.9481767539487</v>
       </c>
-      <c r="F149" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <f t="shared" si="6"/>
+        <v>508.89441677966471</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="7"/>
+        <v>27.287218758091324</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="8"/>
+        <v>481.60719802157337</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="9"/>
+        <v>536.18163553775605</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1961</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>5</v>
       </c>
-      <c r="C150" s="1">
-        <f t="shared" si="6"/>
+      <c r="D150" s="1">
+        <f t="shared" si="10"/>
         <v>22402</v>
       </c>
-      <c r="E150" s="2">
+      <c r="F150" s="2">
         <f t="shared" si="5"/>
         <v>550.37170689077902</v>
       </c>
-      <c r="F150" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <f t="shared" si="6"/>
+        <v>569.84824442952777</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="7"/>
+        <v>27.43119254940779</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="8"/>
+        <v>542.41705188011997</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="9"/>
+        <v>597.27943697893556</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1961</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>6</v>
       </c>
-      <c r="C151" s="1">
-        <f t="shared" si="6"/>
+      <c r="D151" s="1">
+        <f t="shared" si="10"/>
         <v>22433</v>
       </c>
-      <c r="E151" s="2">
+      <c r="F151" s="2">
         <f t="shared" si="5"/>
         <v>556.0327334803419</v>
       </c>
-      <c r="F151" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <f t="shared" si="6"/>
+        <v>653.67778647512318</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="7"/>
+        <v>27.57714839938992</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="8"/>
+        <v>626.10063807573329</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="9"/>
+        <v>681.25493487451308</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1961</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>7</v>
       </c>
-      <c r="C152" s="1">
-        <f t="shared" si="6"/>
+      <c r="D152" s="1">
+        <f t="shared" si="10"/>
         <v>22463</v>
       </c>
-      <c r="E152" s="2">
+      <c r="F152" s="2">
         <f t="shared" si="5"/>
         <v>561.56658131346603</v>
       </c>
-      <c r="F152" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <f t="shared" si="6"/>
+        <v>637.35982144875197</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="7"/>
+        <v>27.725080778034727</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="8"/>
+        <v>609.63474067071729</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="9"/>
+        <v>665.08490222678665</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1961</v>
       </c>
-      <c r="B153">
+      <c r="C153">
         <v>8</v>
       </c>
-      <c r="C153" s="1">
-        <f t="shared" si="6"/>
+      <c r="D153" s="1">
+        <f t="shared" si="10"/>
         <v>22494</v>
       </c>
-      <c r="E153" s="2">
+      <c r="F153" s="2">
         <f t="shared" si="5"/>
         <v>567.3427564126273</v>
       </c>
-      <c r="F153" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <f t="shared" si="6"/>
+        <v>539.05813996086977</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="7"/>
+        <v>27.874983851496118</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="8"/>
+        <v>511.18315610937367</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="9"/>
+        <v>566.93312381236592</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1961</v>
       </c>
-      <c r="B154">
+      <c r="C154">
         <v>9</v>
       </c>
-      <c r="C154" s="1">
-        <f t="shared" si="6"/>
+      <c r="D154" s="1">
+        <f t="shared" si="10"/>
         <v>22525</v>
       </c>
-      <c r="E154" s="2">
+      <c r="F154" s="2">
         <f t="shared" si="5"/>
         <v>573.17834423306942</v>
       </c>
-      <c r="F154" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <f t="shared" si="6"/>
+        <v>490.82222666093469</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="7"/>
+        <v>28.026851494211471</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="8"/>
+        <v>462.7953751667232</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="9"/>
+        <v>518.84907815514612</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1961</v>
       </c>
-      <c r="B155">
+      <c r="C155">
         <v>10</v>
       </c>
-      <c r="C155" s="1">
-        <f t="shared" si="6"/>
+      <c r="D155" s="1">
+        <f t="shared" si="10"/>
         <v>22555</v>
       </c>
-      <c r="E155" s="2">
+      <c r="F155" s="2">
         <f t="shared" si="5"/>
         <v>578.88283166202757</v>
       </c>
-      <c r="F155" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <f t="shared" si="6"/>
+        <v>421.25868199038166</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="7"/>
+        <v>28.180677300937035</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="8"/>
+        <v>393.07800468944464</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="9"/>
+        <v>449.43935929131868</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1961</v>
       </c>
-      <c r="B156">
+      <c r="C156">
         <v>11</v>
       </c>
-      <c r="C156" s="1">
-        <f t="shared" si="6"/>
+      <c r="D156" s="1">
+        <f t="shared" si="10"/>
         <v>22586</v>
       </c>
-      <c r="E156" s="2">
+      <c r="F156" s="2">
         <f t="shared" si="5"/>
         <v>584.83711866706574</v>
       </c>
-      <c r="F156" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <f t="shared" si="6"/>
+        <v>464.42598602853923</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="7"/>
+        <v>28.336454598675807</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="8"/>
+        <v>436.08953142986343</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="9"/>
+        <v>492.76244062721503</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1961</v>
       </c>
-      <c r="B157">
+      <c r="C157">
         <v>12</v>
       </c>
-      <c r="C157" s="1">
-        <f t="shared" si="6"/>
+      <c r="D157" s="1">
+        <f t="shared" si="10"/>
         <v>22616</v>
       </c>
-      <c r="E157" s="2">
+      <c r="F157" s="2">
         <f t="shared" si="5"/>
         <v>590.6576386238836</v>
       </c>
-      <c r="F157" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <f t="shared" si="6"/>
+        <v>486.22644294064577</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="7"/>
+        <v>39.157640431201465</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="8"/>
+        <v>447.06880250944431</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="9"/>
+        <v>525.38408337184728</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158">
         <f>A146+1</f>
         <v>1962</v>
       </c>
-      <c r="B158">
+      <c r="C158">
         <v>1</v>
       </c>
-      <c r="C158" s="1">
-        <f>DATE(A158,B158,1)</f>
+      <c r="D158" s="1">
+        <f>DATE(A158,C158,1)</f>
         <v>22647</v>
       </c>
-      <c r="E158" s="2">
+      <c r="F158" s="2">
         <f t="shared" si="5"/>
         <v>596.73303922263153</v>
       </c>
-      <c r="F158" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <f t="shared" si="6"/>
+        <v>460.24048152100204</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="7"/>
+        <v>39.273973733547777</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="8"/>
+        <v>420.96650778745425</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="9"/>
+        <v>499.51445525454983</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159">
-        <f t="shared" ref="A159:A169" si="7">A147+1</f>
+        <f t="shared" ref="A159:A169" si="11">A147+1</f>
         <v>1962</v>
       </c>
-      <c r="B159">
+      <c r="C159">
         <v>2</v>
       </c>
-      <c r="C159" s="1">
-        <f t="shared" ref="C159:C169" si="8">DATE(A159,B159,1)</f>
+      <c r="D159" s="1">
+        <f t="shared" ref="D159:D169" si="12">DATE(A159,C159,1)</f>
         <v>22678</v>
       </c>
-      <c r="E159" s="2">
+      <c r="F159" s="2">
         <f t="shared" si="5"/>
         <v>602.87093032352777</v>
       </c>
-      <c r="F159" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <f t="shared" si="6"/>
+        <v>491.67684141265551</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="7"/>
+        <v>39.392022371110912</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="8"/>
+        <v>452.28481904154461</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="9"/>
+        <v>531.06886378376646</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1962</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>3</v>
       </c>
-      <c r="C160" s="1">
-        <f t="shared" si="8"/>
+      <c r="D160" s="1">
+        <f t="shared" si="12"/>
         <v>22706</v>
       </c>
-      <c r="E160" s="2">
+      <c r="F160" s="2">
         <f t="shared" si="5"/>
         <v>608.4690783996416</v>
       </c>
-      <c r="F160" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <f t="shared" si="6"/>
+        <v>531.32336841525046</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="7"/>
+        <v>39.511789053978845</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="8"/>
+        <v>491.81157936127158</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="9"/>
+        <v>570.83515746922933</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1962</v>
       </c>
-      <c r="B161">
+      <c r="C161">
         <v>4</v>
       </c>
-      <c r="C161" s="1">
-        <f t="shared" si="8"/>
+      <c r="D161" s="1">
+        <f t="shared" si="12"/>
         <v>22737</v>
       </c>
-      <c r="E161" s="2">
+      <c r="F161" s="2">
         <f t="shared" si="5"/>
         <v>614.72768433563135</v>
       </c>
-      <c r="F161" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <f t="shared" si="6"/>
+        <v>541.30858615326918</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="7"/>
+        <v>39.633276236291856</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="8"/>
+        <v>501.67530991697731</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="9"/>
+        <v>580.94186238956104</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1962</v>
       </c>
-      <c r="B162">
+      <c r="C162">
         <v>5</v>
       </c>
-      <c r="C162" s="1">
-        <f t="shared" si="8"/>
+      <c r="D162" s="1">
+        <f t="shared" si="12"/>
         <v>22767</v>
       </c>
-      <c r="E162" s="2">
+      <c r="F162" s="2">
         <f t="shared" si="5"/>
         <v>620.84568649465734</v>
       </c>
-      <c r="F162" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <f t="shared" si="6"/>
+        <v>602.26241380313229</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="7"/>
+        <v>39.756486119036438</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="8"/>
+        <v>562.50592768409581</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="9"/>
+        <v>642.01889992216877</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1962</v>
       </c>
-      <c r="B163">
+      <c r="C163">
         <v>6</v>
       </c>
-      <c r="C163" s="1">
-        <f t="shared" si="8"/>
+      <c r="D163" s="1">
+        <f t="shared" si="12"/>
         <v>22798</v>
       </c>
-      <c r="E163" s="2">
+      <c r="F163" s="2">
         <f t="shared" si="5"/>
         <v>627.2315960449813</v>
       </c>
-      <c r="F163" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <f t="shared" si="6"/>
+        <v>686.09195584872771</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="7"/>
+        <v>39.881420652951142</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="8"/>
+        <v>646.21053519577652</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="9"/>
+        <v>725.9733765016789</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1962</v>
       </c>
-      <c r="B164">
+      <c r="C164">
         <v>7</v>
       </c>
-      <c r="C164" s="1">
-        <f t="shared" si="8"/>
+      <c r="D164" s="1">
+        <f t="shared" si="12"/>
         <v>22828</v>
       </c>
-      <c r="E164" s="2">
+      <c r="F164" s="2">
         <f t="shared" si="5"/>
         <v>633.47404185732523</v>
       </c>
-      <c r="F164" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <f t="shared" si="6"/>
+        <v>669.77399082235638</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="7"/>
+        <v>40.008081541539497</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="8"/>
+        <v>629.76590928081691</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="9"/>
+        <v>709.78207236389585</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1962</v>
       </c>
-      <c r="B165">
+      <c r="C165">
         <v>8</v>
       </c>
-      <c r="C165" s="1">
-        <f t="shared" si="8"/>
+      <c r="D165" s="1">
+        <f t="shared" si="12"/>
         <v>22859</v>
       </c>
-      <c r="E165" s="2">
+      <c r="F165" s="2">
         <f t="shared" si="5"/>
         <v>639.98984445010615</v>
       </c>
-      <c r="F165" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <f t="shared" si="6"/>
+        <v>571.47230933447429</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="7"/>
+        <v>40.136470244185624</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="8"/>
+        <v>531.33583909028869</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="9"/>
+        <v>611.60877957865989</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1962</v>
       </c>
-      <c r="B166">
+      <c r="C166">
         <v>9</v>
       </c>
-      <c r="C166" s="1">
-        <f t="shared" si="8"/>
+      <c r="D166" s="1">
+        <f t="shared" si="12"/>
         <v>22890</v>
       </c>
-      <c r="E166" s="2">
+      <c r="F166" s="2">
         <f t="shared" si="5"/>
         <v>646.57266744249739</v>
       </c>
-      <c r="F166" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <f t="shared" si="6"/>
+        <v>523.23639603453921</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="7"/>
+        <v>40.266587979367756</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="8"/>
+        <v>482.96980805517148</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="9"/>
+        <v>563.50298401390694</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1962</v>
       </c>
-      <c r="B167">
+      <c r="C167">
         <v>10</v>
       </c>
-      <c r="C167" s="1">
-        <f t="shared" si="8"/>
+      <c r="D167" s="1">
+        <f t="shared" si="12"/>
         <v>22920</v>
       </c>
-      <c r="E167" s="2">
+      <c r="F167" s="2">
         <f t="shared" si="5"/>
         <v>653.00760290445874</v>
       </c>
-      <c r="F167" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <f t="shared" si="6"/>
+        <v>453.67285136398618</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="7"/>
+        <v>40.398435727965101</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="8"/>
+        <v>413.2744156360211</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="9"/>
+        <v>494.07128709195126</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1962</v>
       </c>
-      <c r="B168">
+      <c r="C168">
         <v>11</v>
       </c>
-      <c r="C168" s="1">
-        <f t="shared" si="8"/>
+      <c r="D168" s="1">
+        <f t="shared" si="12"/>
         <v>22951</v>
       </c>
-      <c r="E168" s="2">
+      <c r="F168" s="2">
         <f t="shared" si="5"/>
         <v>659.7243242710291</v>
       </c>
-      <c r="F168" s="7">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <f t="shared" si="6"/>
+        <v>496.84015540214375</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="7"/>
+        <v>40.532014236652984</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="8"/>
+        <v>456.30814116549078</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="9"/>
+        <v>537.37216963879678</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1962</v>
       </c>
-      <c r="B169">
+      <c r="C169">
         <v>12</v>
       </c>
-      <c r="C169" s="1">
-        <f t="shared" si="8"/>
+      <c r="D169" s="1">
+        <f t="shared" si="12"/>
         <v>22981</v>
       </c>
-      <c r="E169" s="2">
+      <c r="F169" s="2">
         <f t="shared" si="5"/>
         <v>666.29014999045194</v>
-      </c>
-      <c r="F169" s="8">
-        <v>700</v>
       </c>
     </row>
   </sheetData>
